--- a/TestDoc/TestDoc_DenysSobol.xlsx
+++ b/TestDoc/TestDoc_DenysSobol.xlsx
@@ -558,33 +558,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -593,42 +569,66 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -957,7 +957,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,11 +1054,11 @@
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
@@ -1162,11 +1162,11 @@
       <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
@@ -1186,235 +1186,235 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="18">
         <v>1</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="19">
         <v>44658</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="30" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
-      <c r="B44" s="24" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="24" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
-      <c r="B47" s="24" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1430,9 +1430,10 @@
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" display="https://rozetka.com.ua/ua/"/>
     <hyperlink ref="C38" r:id="rId2"/>
+    <hyperlink ref="B10:D10" r:id="rId3" display="Open page https://www.instagram.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>